--- a/User stories uitgeharkt en backlog.xlsx
+++ b/User stories uitgeharkt en backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Backlog</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Klant:</t>
+  </si>
+  <si>
+    <t>Manager:</t>
+  </si>
+  <si>
+    <t>Admin:</t>
+  </si>
+  <si>
+    <t>Guest:</t>
   </si>
 </sst>
 </file>
@@ -519,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -552,6 +564,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
@@ -701,6 +718,21 @@
       </c>
       <c r="V13" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
